--- a/Document/Servlet.xlsx
+++ b/Document/Servlet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="93">
   <si>
     <t>Servlet</t>
   </si>
@@ -280,6 +280,21 @@
   </si>
   <si>
     <t>BLL requirement functions</t>
+  </si>
+  <si>
+    <t>game.jsp</t>
+  </si>
+  <si>
+    <t>json Username</t>
+  </si>
+  <si>
+    <t>json Article</t>
+  </si>
+  <si>
+    <t>1. get list username</t>
+  </si>
+  <si>
+    <t>2. get list article</t>
   </si>
 </sst>
 </file>
@@ -392,7 +407,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -411,40 +426,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -454,6 +439,39 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -755,10 +773,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A4:G68"/>
+  <dimension ref="A4:G73"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="D49" sqref="D49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -771,828 +789,889 @@
   </cols>
   <sheetData>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="14" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="6">
+      <c r="A5" s="16">
         <v>1</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="E5" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="7"/>
+      <c r="F5" s="6"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="6"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="7"/>
+      <c r="A6" s="16"/>
+      <c r="B6" s="16"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="6"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="6"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="7"/>
+      <c r="A7" s="16"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="6"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="13">
+      <c r="A8" s="15">
         <v>2</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="C8" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="14" t="s">
+      <c r="D8" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="15" t="s">
+      <c r="E8" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="F8" s="14"/>
+      <c r="F8" s="8"/>
       <c r="G8" s="2"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="13"/>
-      <c r="B9" s="13"/>
-      <c r="C9" s="13" t="s">
+      <c r="A9" s="15"/>
+      <c r="B9" s="15"/>
+      <c r="C9" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="14" t="s">
+      <c r="D9" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="E9" s="16"/>
-      <c r="F9" s="13" t="s">
+      <c r="E9" s="20"/>
+      <c r="F9" s="15" t="s">
         <v>19</v>
       </c>
       <c r="G9" s="2"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="13"/>
-      <c r="B10" s="13"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="14" t="s">
+      <c r="A10" s="15"/>
+      <c r="B10" s="15"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="E10" s="16"/>
-      <c r="F10" s="13"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="15"/>
       <c r="G10" s="2"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="13"/>
-      <c r="B11" s="13"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="14" t="s">
+      <c r="A11" s="15"/>
+      <c r="B11" s="15"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="E11" s="16"/>
-      <c r="F11" s="13"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="15"/>
       <c r="G11" s="2"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="13"/>
-      <c r="B12" s="13"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="14" t="s">
+      <c r="A12" s="15"/>
+      <c r="B12" s="15"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E12" s="17"/>
-      <c r="F12" s="13"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="15"/>
       <c r="G12" s="2"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="6">
+      <c r="A13" s="16">
         <v>3</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="D13" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E13" s="6" t="s">
+      <c r="E13" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="F13" s="6" t="s">
         <v>34</v>
       </c>
       <c r="G13" s="2"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="6"/>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6" t="s">
+      <c r="A14" s="16"/>
+      <c r="B14" s="16"/>
+      <c r="C14" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="D14" s="7" t="s">
+      <c r="D14" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="E14" s="6"/>
-      <c r="F14" s="7" t="s">
+      <c r="E14" s="16"/>
+      <c r="F14" s="6" t="s">
         <v>32</v>
       </c>
       <c r="G14" s="2"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="6"/>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="7" t="s">
+      <c r="A15" s="16"/>
+      <c r="B15" s="16"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="E15" s="6"/>
-      <c r="F15" s="7" t="s">
+      <c r="E15" s="16"/>
+      <c r="F15" s="6" t="s">
         <v>33</v>
       </c>
       <c r="G15" s="2"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="6"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6" t="s">
+      <c r="A16" s="16"/>
+      <c r="B16" s="16"/>
+      <c r="C16" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="D16" s="7" t="s">
+      <c r="D16" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="E16" s="6"/>
-      <c r="F16" s="7" t="s">
+      <c r="E16" s="16"/>
+      <c r="F16" s="6" t="s">
         <v>35</v>
       </c>
       <c r="G16" s="2"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="6"/>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="7" t="s">
+      <c r="A17" s="16"/>
+      <c r="B17" s="16"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="E17" s="6"/>
-      <c r="F17" s="7" t="s">
+      <c r="E17" s="16"/>
+      <c r="F17" s="6" t="s">
         <v>36</v>
       </c>
       <c r="G17" s="2"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="6"/>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6" t="s">
+      <c r="A18" s="16"/>
+      <c r="B18" s="16"/>
+      <c r="C18" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="D18" s="7" t="s">
+      <c r="D18" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="E18" s="6"/>
-      <c r="F18" s="7" t="s">
+      <c r="E18" s="16"/>
+      <c r="F18" s="6" t="s">
         <v>37</v>
       </c>
       <c r="G18" s="2"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="6"/>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="7" t="s">
+      <c r="A19" s="16"/>
+      <c r="B19" s="16"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="E19" s="6"/>
-      <c r="F19" s="7" t="s">
+      <c r="E19" s="16"/>
+      <c r="F19" s="6" t="s">
         <v>35</v>
       </c>
       <c r="G19" s="2"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="6"/>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="7" t="s">
+      <c r="A20" s="16"/>
+      <c r="B20" s="16"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="E20" s="6"/>
-      <c r="F20" s="7" t="s">
+      <c r="E20" s="16"/>
+      <c r="F20" s="6" t="s">
         <v>36</v>
       </c>
       <c r="G20" s="2"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="6"/>
-      <c r="B21" s="6"/>
-      <c r="C21" s="6" t="s">
+      <c r="A21" s="16"/>
+      <c r="B21" s="16"/>
+      <c r="C21" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="D21" s="7" t="s">
+      <c r="D21" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="E21" s="6"/>
-      <c r="F21" s="7" t="s">
+      <c r="E21" s="16"/>
+      <c r="F21" s="6" t="s">
         <v>32</v>
       </c>
       <c r="G21" s="2"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="6"/>
-      <c r="B22" s="6"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="7" t="s">
+      <c r="A22" s="16"/>
+      <c r="B22" s="16"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="E22" s="6"/>
-      <c r="F22" s="7" t="s">
+      <c r="E22" s="16"/>
+      <c r="F22" s="6" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="6"/>
-      <c r="B23" s="6"/>
-      <c r="C23" s="6" t="s">
+      <c r="A23" s="16"/>
+      <c r="B23" s="16"/>
+      <c r="C23" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="D23" s="7" t="s">
+      <c r="D23" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="E23" s="6"/>
-      <c r="F23" s="7" t="s">
+      <c r="E23" s="16"/>
+      <c r="F23" s="6" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="6"/>
-      <c r="B24" s="6"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="7" t="s">
+      <c r="A24" s="16"/>
+      <c r="B24" s="16"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="E24" s="6"/>
-      <c r="F24" s="7" t="s">
+      <c r="E24" s="16"/>
+      <c r="F24" s="6" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="15">
+      <c r="A25" s="19">
         <v>4</v>
       </c>
-      <c r="B25" s="15" t="s">
+      <c r="B25" s="19" t="s">
         <v>7</v>
       </c>
       <c r="C25" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D25" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E25" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="F25" s="13"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="20"/>
+      <c r="B26" s="20"/>
+      <c r="C26" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="D26" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="E26" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="F26" s="13"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="20"/>
+      <c r="B27" s="20"/>
+      <c r="C27" s="21"/>
+      <c r="D27" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="E27" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="F27" s="13"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="20"/>
+      <c r="B28" s="20"/>
+      <c r="C28" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="D25" s="14" t="s">
+      <c r="D28" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="E25" s="13" t="s">
+      <c r="E28" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="F25" s="14"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="16"/>
-      <c r="B26" s="16"/>
-      <c r="C26" s="13"/>
-      <c r="D26" s="14" t="s">
+      <c r="F28" s="8"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="20"/>
+      <c r="B29" s="20"/>
+      <c r="C29" s="15"/>
+      <c r="D29" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="E26" s="13"/>
-      <c r="F26" s="14" t="s">
+      <c r="E29" s="15"/>
+      <c r="F29" s="8" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="16"/>
-      <c r="B27" s="16"/>
-      <c r="C27" s="13"/>
-      <c r="D27" s="14" t="s">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="20"/>
+      <c r="B30" s="20"/>
+      <c r="C30" s="15"/>
+      <c r="D30" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="E27" s="13"/>
-      <c r="F27" s="14"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="16"/>
-      <c r="B28" s="16"/>
-      <c r="C28" s="13" t="s">
+      <c r="E30" s="15"/>
+      <c r="F30" s="8"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="20"/>
+      <c r="B31" s="20"/>
+      <c r="C31" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="D28" s="14" t="s">
+      <c r="D31" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="E28" s="13" t="s">
+      <c r="E31" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="F28" s="14"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="16"/>
-      <c r="B29" s="16"/>
-      <c r="C29" s="13"/>
-      <c r="D29" s="14" t="s">
+      <c r="F31" s="8"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="20"/>
+      <c r="B32" s="20"/>
+      <c r="C32" s="15"/>
+      <c r="D32" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="E29" s="13"/>
-      <c r="F29" s="14"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="17"/>
-      <c r="B30" s="17"/>
-      <c r="C30" s="14" t="s">
+      <c r="E32" s="15"/>
+      <c r="F32" s="8"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="21"/>
+      <c r="B33" s="21"/>
+      <c r="C33" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="D30" s="14" t="s">
+      <c r="D33" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="E30" s="14" t="s">
+      <c r="E33" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="F30" s="14"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="8">
+      <c r="F33" s="8"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="23">
         <v>5</v>
       </c>
-      <c r="B31" s="6" t="s">
+      <c r="B34" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="C31" s="6" t="s">
+      <c r="C34" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="D31" s="7" t="s">
+      <c r="D34" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="E31" s="6" t="s">
+      <c r="E34" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="F31" s="7"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="9"/>
-      <c r="B32" s="6"/>
-      <c r="C32" s="6"/>
-      <c r="D32" s="7" t="s">
+      <c r="F34" s="6"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="17"/>
+      <c r="B35" s="16"/>
+      <c r="C35" s="16"/>
+      <c r="D35" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E32" s="6"/>
-      <c r="F32" s="7"/>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="9"/>
-      <c r="B33" s="6"/>
-      <c r="C33" s="6"/>
-      <c r="D33" s="7" t="s">
+      <c r="E35" s="16"/>
+      <c r="F35" s="6"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="17"/>
+      <c r="B36" s="16"/>
+      <c r="C36" s="16"/>
+      <c r="D36" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E33" s="6"/>
-      <c r="F33" s="12"/>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="9"/>
-      <c r="B34" s="6"/>
-      <c r="C34" s="6"/>
-      <c r="D34" s="7" t="s">
+      <c r="E36" s="16"/>
+      <c r="F36" s="7"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="17"/>
+      <c r="B37" s="16"/>
+      <c r="C37" s="16"/>
+      <c r="D37" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E34" s="6"/>
-      <c r="F34" s="12"/>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="9"/>
-      <c r="B35" s="6"/>
-      <c r="C35" s="6"/>
-      <c r="D35" s="7" t="s">
+      <c r="E37" s="16"/>
+      <c r="F37" s="7"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="17"/>
+      <c r="B38" s="16"/>
+      <c r="C38" s="16"/>
+      <c r="D38" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="E35" s="6"/>
-      <c r="F35" s="12"/>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="9"/>
-      <c r="B36" s="6"/>
-      <c r="C36" s="11" t="s">
+      <c r="E38" s="16"/>
+      <c r="F38" s="7"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="17"/>
+      <c r="B39" s="16"/>
+      <c r="C39" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="D36" s="7" t="s">
+      <c r="D39" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="E36" s="6" t="s">
+      <c r="E39" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="F36" s="12"/>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="9"/>
-      <c r="B37" s="6"/>
-      <c r="C37" s="11"/>
-      <c r="D37" s="7" t="s">
+      <c r="F39" s="7"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="17"/>
+      <c r="B40" s="16"/>
+      <c r="C40" s="22"/>
+      <c r="D40" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E37" s="6"/>
-      <c r="F37" s="12"/>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="10"/>
-      <c r="B38" s="6"/>
-      <c r="C38" s="12" t="s">
+      <c r="E40" s="16"/>
+      <c r="F40" s="7"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="18"/>
+      <c r="B41" s="16"/>
+      <c r="C41" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="D38" s="7" t="s">
+      <c r="D41" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E38" s="7" t="s">
+      <c r="E41" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F38" s="12"/>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D39" s="5"/>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="1" t="s">
+      <c r="F41" s="7"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D42" s="5"/>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B41" s="1" t="s">
+      <c r="B44" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C41" s="3" t="s">
+      <c r="C44" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D41" s="4" t="s">
+      <c r="D44" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="E41" s="1" t="s">
+      <c r="E44" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="11">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="16">
         <v>1</v>
       </c>
-      <c r="B42" s="6" t="s">
+      <c r="B45" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="C42" s="6" t="s">
+      <c r="C45" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="D42" s="19" t="s">
+      <c r="D45" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E42" s="20"/>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="11"/>
-      <c r="B43" s="6"/>
-      <c r="C43" s="6"/>
-      <c r="D43" s="19" t="s">
+      <c r="E45" s="10"/>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="16"/>
+      <c r="B46" s="16"/>
+      <c r="C46" s="16"/>
+      <c r="D46" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="E43" s="20"/>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="11"/>
-      <c r="B44" s="6"/>
-      <c r="C44" s="6"/>
-      <c r="D44" s="19" t="s">
+      <c r="E46" s="10"/>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="16"/>
+      <c r="B47" s="16"/>
+      <c r="C47" s="16"/>
+      <c r="D47" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="E44" s="20"/>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="18">
+      <c r="E47" s="10"/>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" s="15">
         <v>2</v>
       </c>
-      <c r="B45" s="13" t="s">
+      <c r="B48" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="C45" s="13" t="s">
+      <c r="C48" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="D45" s="21" t="s">
+      <c r="D48" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="E45" s="22"/>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="18"/>
-      <c r="B46" s="13"/>
-      <c r="C46" s="13"/>
-      <c r="D46" s="21" t="s">
+      <c r="E48" s="12"/>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="15"/>
+      <c r="B49" s="15"/>
+      <c r="C49" s="15"/>
+      <c r="D49" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="E46" s="22" t="s">
+      <c r="E49" s="12" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="18"/>
-      <c r="B47" s="13"/>
-      <c r="C47" s="13"/>
-      <c r="D47" s="21" t="s">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="15"/>
+      <c r="B50" s="15"/>
+      <c r="C50" s="15"/>
+      <c r="D50" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="E47" s="22"/>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="18"/>
-      <c r="B48" s="13"/>
-      <c r="C48" s="14" t="s">
+      <c r="E50" s="12"/>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" s="15"/>
+      <c r="B51" s="15"/>
+      <c r="C51" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D48" s="21" t="s">
+      <c r="D51" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="E48" s="22"/>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="11">
+      <c r="E51" s="12"/>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" s="16">
         <v>3</v>
       </c>
-      <c r="B49" s="6" t="s">
+      <c r="B52" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="C49" s="6" t="s">
+      <c r="C52" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="D49" s="19" t="s">
+      <c r="D52" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="E49" s="20"/>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" s="11"/>
-      <c r="B50" s="6"/>
-      <c r="C50" s="6"/>
-      <c r="D50" s="19" t="s">
+      <c r="E52" s="10"/>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" s="16"/>
+      <c r="B53" s="16"/>
+      <c r="C53" s="16"/>
+      <c r="D53" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="E50" s="20"/>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" s="11"/>
-      <c r="B51" s="6"/>
-      <c r="C51" s="6" t="s">
+      <c r="E53" s="10"/>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" s="16"/>
+      <c r="B54" s="16"/>
+      <c r="C54" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="D51" s="19" t="s">
+      <c r="D54" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="E51" s="20"/>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" s="11"/>
-      <c r="B52" s="6"/>
-      <c r="C52" s="6"/>
-      <c r="D52" s="19" t="s">
+      <c r="E54" s="10"/>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" s="16"/>
+      <c r="B55" s="16"/>
+      <c r="C55" s="16"/>
+      <c r="D55" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="E52" s="20"/>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" s="11"/>
-      <c r="B53" s="6"/>
-      <c r="C53" s="7" t="s">
+      <c r="E55" s="10"/>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" s="16"/>
+      <c r="B56" s="16"/>
+      <c r="C56" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="D53" s="19" t="s">
+      <c r="D56" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="E53" s="20"/>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" s="11"/>
-      <c r="B54" s="6"/>
-      <c r="C54" s="7" t="s">
+      <c r="E56" s="10"/>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" s="16"/>
+      <c r="B57" s="16"/>
+      <c r="C57" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="D54" s="19" t="s">
+      <c r="D57" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="E54" s="20"/>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" s="11"/>
-      <c r="B55" s="6"/>
-      <c r="C55" s="7" t="s">
+      <c r="E57" s="10"/>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" s="16"/>
+      <c r="B58" s="16"/>
+      <c r="C58" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="D55" s="19" t="s">
+      <c r="D58" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="E55" s="20"/>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" s="11"/>
-      <c r="B56" s="6"/>
-      <c r="C56" s="7" t="s">
+      <c r="E58" s="10"/>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" s="16"/>
+      <c r="B59" s="16"/>
+      <c r="C59" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="D56" s="19" t="s">
+      <c r="D59" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="E56" s="20"/>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57" s="18">
+      <c r="E59" s="10"/>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" s="19">
         <v>4</v>
       </c>
-      <c r="B57" s="13" t="s">
+      <c r="B60" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="C57" s="13" t="s">
+      <c r="C60" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="D60" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="E60" s="12"/>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" s="20"/>
+      <c r="B61" s="20"/>
+      <c r="C61" s="21"/>
+      <c r="D61" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="E61" s="12"/>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" s="20"/>
+      <c r="B62" s="20"/>
+      <c r="C62" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="D57" s="21" t="s">
+      <c r="D62" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="E57" s="22"/>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58" s="18"/>
-      <c r="B58" s="13"/>
-      <c r="C58" s="13"/>
-      <c r="D58" s="21" t="s">
+      <c r="E62" s="12"/>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" s="20"/>
+      <c r="B63" s="20"/>
+      <c r="C63" s="15"/>
+      <c r="D63" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="E58" s="22"/>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59" s="18"/>
-      <c r="B59" s="13"/>
-      <c r="C59" s="13"/>
-      <c r="D59" s="21" t="s">
+      <c r="E63" s="12"/>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" s="20"/>
+      <c r="B64" s="20"/>
+      <c r="C64" s="15"/>
+      <c r="D64" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="E59" s="22" t="s">
+      <c r="E64" s="12" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A60" s="18"/>
-      <c r="B60" s="13"/>
-      <c r="C60" s="13" t="s">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" s="20"/>
+      <c r="B65" s="20"/>
+      <c r="C65" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="D60" s="21" t="s">
+      <c r="D65" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="E60" s="22"/>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61" s="18"/>
-      <c r="B61" s="13"/>
-      <c r="C61" s="13"/>
-      <c r="D61" s="21" t="s">
+      <c r="E65" s="12"/>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" s="20"/>
+      <c r="B66" s="20"/>
+      <c r="C66" s="15"/>
+      <c r="D66" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="E61" s="22" t="s">
+      <c r="E66" s="12" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62" s="18"/>
-      <c r="B62" s="13"/>
-      <c r="C62" s="14" t="s">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" s="21"/>
+      <c r="B67" s="21"/>
+      <c r="C67" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="D62" s="21" t="s">
+      <c r="D67" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="E62" s="22" t="s">
+      <c r="E67" s="12" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A63" s="11">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" s="16">
         <v>5</v>
       </c>
-      <c r="B63" s="6" t="s">
+      <c r="B68" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="C63" s="6" t="s">
+      <c r="C68" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="D63" s="19" t="s">
+      <c r="D68" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="E63" s="7"/>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A64" s="11"/>
-      <c r="B64" s="6"/>
-      <c r="C64" s="6"/>
-      <c r="D64" s="19" t="s">
+      <c r="E68" s="6"/>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" s="16"/>
+      <c r="B69" s="16"/>
+      <c r="C69" s="16"/>
+      <c r="D69" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="E64" s="7"/>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A65" s="11"/>
-      <c r="B65" s="6"/>
-      <c r="C65" s="6"/>
-      <c r="D65" s="19" t="s">
+      <c r="E69" s="6"/>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" s="16"/>
+      <c r="B70" s="16"/>
+      <c r="C70" s="16"/>
+      <c r="D70" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="E65" s="7"/>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A66" s="11"/>
-      <c r="B66" s="6"/>
-      <c r="C66" s="6"/>
-      <c r="D66" s="19" t="s">
+      <c r="E70" s="6"/>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" s="16"/>
+      <c r="B71" s="16"/>
+      <c r="C71" s="16"/>
+      <c r="D71" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="E66" s="7"/>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A67" s="11"/>
-      <c r="B67" s="6"/>
-      <c r="C67" s="7" t="s">
+      <c r="E71" s="6"/>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" s="16"/>
+      <c r="B72" s="16"/>
+      <c r="C72" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="D67" s="19" t="s">
+      <c r="D72" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="E67" s="7"/>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A68" s="11"/>
-      <c r="B68" s="6"/>
-      <c r="C68" s="7" t="s">
+      <c r="E72" s="6"/>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" s="16"/>
+      <c r="B73" s="16"/>
+      <c r="C73" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="D68" s="19" t="s">
+      <c r="D73" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="E68" s="7"/>
+      <c r="E73" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="47">
-    <mergeCell ref="C57:C59"/>
+  <mergeCells count="49">
+    <mergeCell ref="A52:A59"/>
+    <mergeCell ref="A68:A73"/>
+    <mergeCell ref="C62:C64"/>
+    <mergeCell ref="C65:C66"/>
+    <mergeCell ref="B68:B73"/>
+    <mergeCell ref="C68:C71"/>
+    <mergeCell ref="A60:A67"/>
+    <mergeCell ref="B60:B67"/>
     <mergeCell ref="C60:C61"/>
-    <mergeCell ref="B57:B62"/>
-    <mergeCell ref="B63:B68"/>
-    <mergeCell ref="C63:C66"/>
-    <mergeCell ref="A42:A44"/>
-    <mergeCell ref="A45:A48"/>
-    <mergeCell ref="A49:A56"/>
-    <mergeCell ref="A57:A62"/>
-    <mergeCell ref="A63:A68"/>
-    <mergeCell ref="C36:C37"/>
-    <mergeCell ref="E31:E35"/>
-    <mergeCell ref="E36:E37"/>
-    <mergeCell ref="A25:A30"/>
-    <mergeCell ref="A31:A38"/>
-    <mergeCell ref="B25:B30"/>
-    <mergeCell ref="E25:E27"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="C25:C27"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="C51:C52"/>
-    <mergeCell ref="C45:C47"/>
-    <mergeCell ref="C49:C50"/>
-    <mergeCell ref="B42:B44"/>
+    <mergeCell ref="E34:E38"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="A34:A41"/>
+    <mergeCell ref="E28:E30"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="C28:C30"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="A25:A33"/>
+    <mergeCell ref="B25:B33"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="C54:C55"/>
+    <mergeCell ref="C48:C50"/>
+    <mergeCell ref="C52:C53"/>
+    <mergeCell ref="B45:B47"/>
     <mergeCell ref="A5:A7"/>
     <mergeCell ref="A8:A12"/>
     <mergeCell ref="A13:A24"/>
-    <mergeCell ref="C42:C44"/>
-    <mergeCell ref="B45:B48"/>
-    <mergeCell ref="B49:B56"/>
-    <mergeCell ref="B31:B38"/>
-    <mergeCell ref="C31:C35"/>
+    <mergeCell ref="C45:C47"/>
+    <mergeCell ref="B48:B51"/>
+    <mergeCell ref="B52:B59"/>
+    <mergeCell ref="B34:B41"/>
+    <mergeCell ref="C34:C38"/>
     <mergeCell ref="C21:C22"/>
-    <mergeCell ref="E13:E24"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="A45:A47"/>
+    <mergeCell ref="A48:A51"/>
     <mergeCell ref="B5:B7"/>
     <mergeCell ref="C5:C7"/>
     <mergeCell ref="D5:D7"/>
@@ -1606,6 +1685,7 @@
     <mergeCell ref="C16:C17"/>
     <mergeCell ref="C18:C20"/>
     <mergeCell ref="C23:C24"/>
+    <mergeCell ref="E13:E24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
